--- a/src/test/resources/testdata/excel/testdata.xlsx
+++ b/src/test/resources/testdata/excel/testdata.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pon Vignesh\IdeaProjects\Java_Selenium_TestingFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bselvaraju\Documents\ui\GWS UI\ui_testframework\src\test\resources\testdata\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710F7106-FE06-40DB-AF03-E0076864E921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
+    <sheet name="bridge_message_testdata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
   <si>
     <t>testdescription</t>
   </si>
@@ -40,106 +40,136 @@
     <t>count</t>
   </si>
   <si>
-    <t>loginLogoutTest</t>
-  </si>
-  <si>
-    <t>newTest</t>
-  </si>
-  <si>
-    <t>To check whether this test is executed</t>
-  </si>
-  <si>
-    <t>To check whether the user can successfully log in and log out.</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
     <t>testcasename</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>admin1223</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Aishu</t>
-  </si>
-  <si>
-    <t>Vignesh</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Bhuvi</t>
-  </si>
-  <si>
     <t>DEV</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
     <t>environment</t>
+  </si>
+  <si>
+    <t>TC001_Bridge_Login_Logout_ValidCredentials</t>
+  </si>
+  <si>
+    <t>amonaghan+INTEGRATIONbridge@officepracticum.com</t>
+  </si>
+  <si>
+    <t>9i$4A4rbnEdR^Be@9kG9hj5TfCsTeq$</t>
+  </si>
+  <si>
+    <t>amonaghan+testbridge1@officepracticum.com</t>
+  </si>
+  <si>
+    <t>tWkMXNZUV3HagC5o^NxwNdDvW8Jfvj#</t>
+  </si>
+  <si>
+    <t>amonaghan+testbridgee1@officepracticum.com</t>
+  </si>
+  <si>
+    <t>68H!QwL68h$&amp;yG#@xpZgwB&amp;fVhap%eh</t>
+  </si>
+  <si>
+    <t>amonaghan+Bridge12758@officepracticum.com</t>
+  </si>
+  <si>
+    <t>PY6Jyudfxk6*uc@gAWw56!6CBX#qhHB</t>
+  </si>
+  <si>
+    <t>amonaghan+testbridge3@officepracticum.com</t>
+  </si>
+  <si>
+    <t>b*UvEnXEGWV6Ktt9ewE@D3$@L&amp;Nvu4e</t>
+  </si>
+  <si>
+    <t>amonaghan+Bridge12760@officepracticum.com</t>
+  </si>
+  <si>
+    <t>7kUh&amp;3qMChNx6JCe4U9qyiiS@yhqcHi</t>
+  </si>
+  <si>
+    <t>amonaghan+testbridge5@officepracticum.com</t>
+  </si>
+  <si>
+    <t>3HL8*pnptKZuz^7Kv%GAfqf@PbAGf*V</t>
+  </si>
+  <si>
+    <t>amonaghan+testbridge6@officepracticum.com</t>
+  </si>
+  <si>
+    <t>jXxxBWCKM^#opfxL$*Zz994GJ6oM#!t</t>
+  </si>
+  <si>
+    <t>amonaghan+testbridge7@officepracticum.com</t>
+  </si>
+  <si>
+    <t>vX^Y9@2%MDar^h23&amp;*Jb3hH5e2&amp;h%Ao</t>
+  </si>
+  <si>
+    <t>amonaghan+testbridge8@officepracticum.com</t>
+  </si>
+  <si>
+    <t>ZyzHFa#qffDYJbgYM%gXeF*PoM2!wY5</t>
+  </si>
+  <si>
+    <t>amonaghan+testbridge9@officepracticum.com</t>
+  </si>
+  <si>
+    <t>^KhR%2hmdMS2JP4D%GW9AP#BZbaTz93</t>
+  </si>
+  <si>
+    <t>amonaghan+testbridge10@officepracticum.com</t>
+  </si>
+  <si>
+    <t>dbcPCsa*oYXTLmw3CRZ7nH$v9PEMZy$</t>
+  </si>
+  <si>
+    <t>TC002_Bridge_SendMessage</t>
+  </si>
+  <si>
+    <t>Bridge Message Auto Sub</t>
+  </si>
+  <si>
+    <t>Bridge Message Auto Body</t>
+  </si>
+  <si>
+    <t>msg_sub</t>
+  </si>
+  <si>
+    <t>msg_body</t>
+  </si>
+  <si>
+    <t>To verify that a user can successfully log in and log out of the Bridge portal using valid credentials.</t>
+  </si>
+  <si>
+    <t>To verify that a user can send a message from the Bridge portal to OP.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,11 +481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,10 +496,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -486,42 +516,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -531,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DA5681-5965-4783-9E74-0FC14A78D446}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F11"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,264 +574,447 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="72.7109375" customWidth="1"/>
+    <col min="6" max="6" width="62.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/excel/testdata.xlsx
+++ b/src/test/resources/testdata/excel/testdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bselvaraju\Documents\ui\GWS UI\ui_testframework\src\test\resources\testdata\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pon Vignesh.K\OneDrive\src\test\resources\testdata\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80618826-3A03-4510-B194-151F84E9307F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
   <si>
     <t>testdescription</t>
   </si>
@@ -164,12 +165,18 @@
   </si>
   <si>
     <t>To verify that a user can send a message from the Bridge portal to OP.</t>
+  </si>
+  <si>
+    <t>loginLogoutTest</t>
+  </si>
+  <si>
+    <t>QA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -561,11 +568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +580,7 @@
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -601,10 +608,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -843,15 +850,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="33" customWidth="1"/>
     <col min="5" max="5" width="72.7109375" customWidth="1"/>
     <col min="6" max="6" width="62.7109375" customWidth="1"/>
     <col min="7" max="7" width="55.140625" customWidth="1"/>
